--- a/viralloads_template.xlsx
+++ b/viralloads_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\antigen-sensitivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B614C1D-4C9C-E14D-BFD7-8B4DBD6C0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="21800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="column descriptions" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="171">
   <si>
     <t>data_type</t>
   </si>
@@ -528,12 +527,21 @@
   </si>
   <si>
     <t>This sheet describes each column</t>
+  </si>
+  <si>
+    <t>Disabilities</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Connective tissue disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1359,27 +1367,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="119" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1445,7 +1453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1541,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +1552,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1585,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
@@ -1610,7 +1618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -1676,7 +1684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -1786,7 +1794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -1797,7 +1805,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -1885,7 +1893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -1929,7 +1937,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
@@ -1973,7 +1981,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -1984,7 +1992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>115</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -2050,7 +2058,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>116</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
@@ -2072,7 +2080,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -2084,32 +2092,32 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:C3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:C3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DC7B3C-4759-DD4C-BA3B-C6367AF93B84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>156</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2133,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2133,7 +2141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2141,7 +2149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -2157,7 +2165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2181,7 +2189,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2197,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -2245,7 +2253,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -2253,7 +2261,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -2261,7 +2269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -2269,7 +2277,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
@@ -2277,7 +2285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2285,7 +2293,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -2309,7 +2317,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -2317,7 +2325,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -2333,7 +2341,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2341,7 +2349,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -2349,7 +2357,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -2389,7 +2397,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -2405,7 +2413,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -2413,7 +2421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
@@ -2461,7 +2469,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>48</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2485,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
@@ -2493,7 +2501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
@@ -2517,15 +2525,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>56</v>
       </c>
@@ -2533,15 +2541,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>59</v>
       </c>
@@ -2549,7 +2557,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -2557,15 +2565,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>62</v>
       </c>
@@ -2573,15 +2581,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>115</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
@@ -2597,7 +2605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>116</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>64</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>

--- a/viralloads_template.xlsx
+++ b/viralloads_template.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\antigen-sensitivity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramy/ArnaoutLab Dropbox/Ramy Arnaout/Covid-19_diagnostics/Reagan_Udall_Foundation_grant/From_and_to_Alex_Morgan/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263960A-3F6B-D748-B0FC-4EBD53AEE0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29740" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column descriptions" sheetId="1" r:id="rId1"/>
     <sheet name="column-to-checkbox corresponden" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'column descriptions'!$B$3:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'column descriptions'!$A$3:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'column-to-checkbox corresponden'!$A$3:$B$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -421,9 +423,6 @@
     <t>Transplanted organ and tissue status</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -499,9 +498,6 @@
     <t>Checkbox name</t>
   </si>
   <si>
-    <t>This sheet shows the correspondence between names for the checkboxes in the "Explore groups" window on the website and column headings in the downloaded data</t>
-  </si>
-  <si>
     <t>median household income by zip code from the 2020 Census (2020 American Community Survey). URL structure (replace &lt;ZIPCODE&gt; with an actual zipcode): https://api.census.gov/data/2020/acs/acs5/subject?get=NAME,S1901_C01_012E&amp;for=zip%20code%20tabulation%20area:&lt;ZIPCODE&gt; . In the text that this URL will return, S1901_C01_012E is the column name for median household income</t>
   </si>
   <si>
@@ -526,22 +522,28 @@
     <t>Contributes to Presentation (sick-appearing: &gt;99.1)</t>
   </si>
   <si>
-    <t>This sheet describes each column</t>
-  </si>
-  <si>
     <t>Disabilities</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Connective tissue disease</t>
+  </si>
+  <si>
+    <t>This sheet shows the correspondence between names for the checkboxes in the "Explore groups" window on the website and column headings in the downloaded data. "NA" means the data in this column does not appear as a checkbox option</t>
+  </si>
+  <si>
+    <t>Blood products</t>
+  </si>
+  <si>
+    <t>Pregnancy status</t>
+  </si>
+  <si>
+    <t>This sheet describes each column, including, where relevant, measurement units and the codes that map to it. Note the ICD10 codes are prefixes: branches and leaves that fall under the given ICD10 code were included.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1032,7 +1034,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1041,12 +1043,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1367,1269 +1365,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="33.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B3:C3"/>
+  <autoFilter ref="A3:C3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C66">
+      <sortCondition ref="A3:A66"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
-    </sheetView>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A3:B3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B66">
+      <sortCondition ref="A3:A66"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>